--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
@@ -1,63 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Dropbox\2_WORK\EperLab\Proyectos\2020_FiscalImpactDecarbonization\4_Model\WORKING_MODEL_FRAMEWORK_July2020\Scenario_Confection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/ClimateLeadGroup-Decarb_RD/Documentos compartidos/Decarb_RD/WBG/4_Model/RD_Model_v2/A2_Extra_Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98318D7B-AFF7-4B77-A2D5-F2677D93407C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{EAEA4B35-7A75-46DF-9244-5221D1E50B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347B2D77-E4EB-449F-BAEA-58072D372812}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="-14040" windowWidth="19965" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Other_Params" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={419D354C-EE2A-4949-8C3B-A1E015ECD852}</author>
+    <author>tc={3EFFE2B1-164D-48D4-B845-88313C528D0B}</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{419D354C-EE2A-4949-8C3B-A1E015ECD852}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Qué nomenclatura se le pondrá?
+Reply:
+    LTS, también ajustar cuando lo encontrés. Voy a decirle al team. </t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{3EFFE2B1-164D-48D4-B845-88313C528D0B}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Se cambia HON por RD
+Reply:
+    Sí, porfa. Hay que ir quitando el HON de todo lado. </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>Main_Scenario</t>
+  </si>
+  <si>
     <t>BAU</t>
   </si>
   <si>
     <t>Other_Scenarios</t>
   </si>
   <si>
-    <t>NDP</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
+    <t>RD</t>
+  </si>
+  <si>
     <t>Mode_of_Operation</t>
   </si>
   <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Param</t>
-  </si>
-  <si>
-    <t>Main_Scenario</t>
+    <t>Timeslice</t>
   </si>
   <si>
     <t>All</t>
   </si>
   <si>
-    <t>Timeslice</t>
+    <t>LTS</t>
   </si>
 </sst>
 </file>
@@ -81,13 +123,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -233,13 +281,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,6 +301,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -270,6 +321,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ignacio  Alfaro Corrales" id="{52C90106-6D48-48FD-B3EC-19AC72BA22FC}" userId="S::ialfaro@clg-cr.com::2f1004e4-cc44-45fc-832d-273ab6f562d2" providerId="AD"/>
+  <person displayName="Mariana Rodríguez-Arce" id="{9C3AA3D2-A225-4FD2-B651-645E91497EA1}" userId="S::mrodriguez@clg-cr.com::e9ca1aa1-7ea7-4c4b-85ee-54ae8b9b68db" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,62 +591,81 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B3" dT="2024-02-21T03:03:49.04" personId="{52C90106-6D48-48FD-B3EC-19AC72BA22FC}" id="{419D354C-EE2A-4949-8C3B-A1E015ECD852}">
+    <text>Qué nomenclatura se le pondrá?</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2024-02-21T14:54:31.46" personId="{9C3AA3D2-A225-4FD2-B651-645E91497EA1}" id="{A6EA478E-A2B3-4403-801D-7F57F30097C4}" parentId="{419D354C-EE2A-4949-8C3B-A1E015ECD852}">
+    <text xml:space="preserve">LTS, también ajustar cuando lo encontrés. Voy a decirle al team. </text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2024-02-21T03:03:07.53" personId="{52C90106-6D48-48FD-B3EC-19AC72BA22FC}" id="{3EFFE2B1-164D-48D4-B845-88313C528D0B}">
+    <text>Se cambia HON por RD</text>
+  </threadedComment>
+  <threadedComment ref="B4" dT="2024-02-21T14:47:33.56" personId="{9C3AA3D2-A225-4FD2-B651-645E91497EA1}" id="{CEA36EEC-7CAD-431A-89C9-D9E3BBC590CC}" parentId="{3EFFE2B1-164D-48D4-B845-88313C528D0B}">
+    <text xml:space="preserve">Sí, porfa. Hay que ir quitando el HON de todo lado. </text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>9</v>
@@ -597,5 +674,278 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3AFD5D-B2EB-4B7C-B9D5-F081DC0BCFEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9422D5EA-73A0-40E6-A4A6-69DD3F347630}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70826B31-45BE-4F9C-B5E5-DED838379614}"/>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clgcr.sharepoint.com/sites/ClimateLeadGroup-Decarb_RD/Documentos compartidos/Decarb_RD/WBG/4_Model/RD_Model_v2/A2_Extra_Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\CLG_repositories\osemosys_momf\t1_confection\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{EAEA4B35-7A75-46DF-9244-5221D1E50B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347B2D77-E4EB-449F-BAEA-58072D372812}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B2C50-3F04-459C-921F-CB1D7D9D542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Other_Params" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>LTS</t>
+  </si>
+  <si>
+    <t>Timeslices</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
   </si>
 </sst>
 </file>
@@ -137,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -174,7 +186,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -185,7 +199,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -198,7 +214,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -217,6 +235,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -224,86 +251,90 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,66 +641,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
+      <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -688,16 +734,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
@@ -928,6 +964,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3AFD5D-B2EB-4B7C-B9D5-F081DC0BCFEF}">
   <ds:schemaRefs>
@@ -937,6 +983,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70826B31-45BE-4F9C-B5E5-DED838379614}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9422D5EA-73A0-40E6-A4A6-69DD3F347630}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -944,8 +1009,4 @@
     <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70826B31-45BE-4F9C-B5E5-DED838379614}"/>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
@@ -5,69 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ClimateLeadGroup\Desktop\CLG_repositories\osemosys_momf\t1_confection\A2_Extra_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\JAMAICA_Models\1_3_4_Ele_Bld_Ind\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269B2C50-3F04-459C-921F-CB1D7D9D542B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80493EC-CC79-4FA6-8F9E-7DF205A927EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Other_Params" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={419D354C-EE2A-4949-8C3B-A1E015ECD852}</author>
-    <author>tc={3EFFE2B1-164D-48D4-B845-88313C528D0B}</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{419D354C-EE2A-4949-8C3B-A1E015ECD852}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Qué nomenclatura se le pondrá?
-Reply:
-    LTS, también ajustar cuando lo encontrés. Voy a decirle al team. </t>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{3EFFE2B1-164D-48D4-B845-88313C528D0B}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Se cambia HON por RD
-Reply:
-    Sí, porfa. Hay que ir quitando el HON de todo lado. </t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>BAU</t>
+  </si>
+  <si>
+    <t>Other_Scenarios</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Mode_of_Operation</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -78,40 +48,16 @@
     <t>Main_Scenario</t>
   </si>
   <si>
-    <t>BAU</t>
-  </si>
-  <si>
-    <t>Other_Scenarios</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>RD</t>
-  </si>
-  <si>
-    <t>Mode_of_Operation</t>
+    <t>All</t>
   </si>
   <si>
     <t>Timeslice</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>LTS</t>
   </si>
   <si>
-    <t>Timeslices</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
+    <t>JAM</t>
   </si>
 </sst>
 </file>
@@ -135,21 +81,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -186,9 +126,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -199,9 +137,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -214,9 +150,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -235,6 +169,49 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,98 +220,39 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -352,13 +270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ignacio  Alfaro Corrales" id="{52C90106-6D48-48FD-B3EC-19AC72BA22FC}" userId="S::ialfaro@clg-cr.com::2f1004e4-cc44-45fc-832d-273ab6f562d2" providerId="AD"/>
-  <person displayName="Mariana Rodríguez-Arce" id="{9C3AA3D2-A225-4FD2-B651-645E91497EA1}" userId="S::mrodriguez@clg-cr.com::e9ca1aa1-7ea7-4c4b-85ee-54ae8b9b68db" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,122 +533,87 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2024-02-21T03:03:49.04" personId="{52C90106-6D48-48FD-B3EC-19AC72BA22FC}" id="{419D354C-EE2A-4949-8C3B-A1E015ECD852}">
-    <text>Qué nomenclatura se le pondrá?</text>
-  </threadedComment>
-  <threadedComment ref="B3" dT="2024-02-21T14:54:31.46" personId="{9C3AA3D2-A225-4FD2-B651-645E91497EA1}" id="{A6EA478E-A2B3-4403-801D-7F57F30097C4}" parentId="{419D354C-EE2A-4949-8C3B-A1E015ECD852}">
-    <text xml:space="preserve">LTS, también ajustar cuando lo encontrés. Voy a decirle al team. </text>
-  </threadedComment>
-  <threadedComment ref="B4" dT="2024-02-21T03:03:07.53" personId="{52C90106-6D48-48FD-B3EC-19AC72BA22FC}" id="{3EFFE2B1-164D-48D4-B845-88313C528D0B}">
-    <text>Se cambia HON por RD</text>
-  </threadedComment>
-  <threadedComment ref="B4" dT="2024-02-21T14:47:33.56" personId="{9C3AA3D2-A225-4FD2-B651-645E91497EA1}" id="{CEA36EEC-7CAD-431A-89C9-D9E3BBC590CC}" parentId="{3EFFE2B1-164D-48D4-B845-88313C528D0B}">
-    <text xml:space="preserve">Sí, porfa. Hay que ir quitando el HON de todo lado. </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>11</v>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>12</v>
+      <c r="B5" s="9">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="14"/>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0d55314f-45f1-40c9-9fce-63556e193d03">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
-    <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F74FB0E003A88C4B9D9793633BA4B356" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="0b91461ea42f649c0e2a912844849d59">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0d55314f-45f1-40c9-9fce-63556e193d03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2dde1a2dc8a4a80923ccdd7c7b3969d3" ns2:_="">
+    <xsd:import namespace="0d55314f-45f1-40c9-9fce-63556e193d03"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -746,18 +622,15 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -765,7 +638,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0d55314f-45f1-40c9-9fce-63556e193d03" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -778,90 +651,53 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="71f7bd95-1200-4052-9a4e-dfdf006e181b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -874,8 +710,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -965,48 +801,31 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D044BD7-CD13-4950-8112-F2F737605A34}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F59E6C28-4B6C-4ED3-B2AA-097CA8112E54}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD3AFD5D-B2EB-4B7C-B9D5-F081DC0BCFEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70826B31-45BE-4F9C-B5E5-DED838379614}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-    <ds:schemaRef ds:uri="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9422D5EA-73A0-40E6-A4A6-69DD3F347630}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
+++ b/t1_confection/A2_Extra_Inputs/A-Xtra_Scenarios.xlsx
@@ -698,8 +698,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -947,5 +947,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70826B31-45BE-4F9C-B5E5-DED838379614}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{991EFA7C-A623-4E5D-8912-E4ADB3D1A867}"/>
 </file>